--- a/BPS_FH_Dataset/18/chords.xlsx
+++ b/BPS_FH_Dataset/18/chords.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="120">
   <si>
     <t>E-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,10 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,6 +499,10 @@
   </si>
   <si>
     <t>vii-65/iii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,15 +878,15 @@
   <dimension ref="A1:G320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+      <selection activeCell="G193" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -913,7 +909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -936,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -959,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>18</v>
       </c>
@@ -982,7 +978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>21</v>
       </c>
@@ -1005,7 +1001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>27</v>
       </c>
@@ -1028,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>36</v>
       </c>
@@ -1051,7 +1047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -1074,7 +1070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45</v>
       </c>
@@ -1097,7 +1093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>48</v>
       </c>
@@ -1120,7 +1116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>51</v>
       </c>
@@ -1143,7 +1139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>54</v>
       </c>
@@ -1166,7 +1162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>57</v>
       </c>
@@ -1189,7 +1185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>59</v>
       </c>
@@ -1212,7 +1208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>60</v>
       </c>
@@ -1235,7 +1231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>63</v>
       </c>
@@ -1258,7 +1254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>66</v>
       </c>
@@ -1281,7 +1277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>69</v>
       </c>
@@ -1304,7 +1300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>71</v>
       </c>
@@ -1327,7 +1323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>72</v>
       </c>
@@ -1350,7 +1346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -1373,7 +1369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>78</v>
       </c>
@@ -1396,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>81</v>
       </c>
@@ -1419,7 +1415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>84</v>
       </c>
@@ -1442,7 +1438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>87</v>
       </c>
@@ -1465,7 +1461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>90</v>
       </c>
@@ -1488,7 +1484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>96</v>
       </c>
@@ -1511,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>104</v>
       </c>
@@ -1534,7 +1530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>105</v>
       </c>
@@ -1557,7 +1553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>107</v>
       </c>
@@ -1580,7 +1576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>108</v>
       </c>
@@ -1603,7 +1599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>110</v>
       </c>
@@ -1626,7 +1622,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>111</v>
       </c>
@@ -1649,7 +1645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>113</v>
       </c>
@@ -1672,7 +1668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>114</v>
       </c>
@@ -1695,7 +1691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>116</v>
       </c>
@@ -1718,7 +1714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>117</v>
       </c>
@@ -1741,7 +1737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>119</v>
       </c>
@@ -1764,7 +1760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>120</v>
       </c>
@@ -1787,7 +1783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>122</v>
       </c>
@@ -1810,7 +1806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>123</v>
       </c>
@@ -1833,7 +1829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1856,7 +1852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>126</v>
       </c>
@@ -1879,7 +1875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>129</v>
       </c>
@@ -1902,7 +1898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>135</v>
       </c>
@@ -1925,7 +1921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>141</v>
       </c>
@@ -1948,7 +1944,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>144</v>
       </c>
@@ -1971,7 +1967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>146</v>
       </c>
@@ -1994,7 +1990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>147</v>
       </c>
@@ -2017,7 +2013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>152</v>
       </c>
@@ -2040,7 +2036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>153</v>
       </c>
@@ -2063,7 +2059,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>154</v>
       </c>
@@ -2086,7 +2082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>155</v>
       </c>
@@ -2109,7 +2105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>156</v>
       </c>
@@ -2132,7 +2128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>168</v>
       </c>
@@ -2155,7 +2151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>174</v>
       </c>
@@ -2178,7 +2174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>177</v>
       </c>
@@ -2201,7 +2197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>179</v>
       </c>
@@ -2224,7 +2220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>180</v>
       </c>
@@ -2247,7 +2243,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>185</v>
       </c>
@@ -2270,7 +2266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>186</v>
       </c>
@@ -2293,7 +2289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>187</v>
       </c>
@@ -2316,7 +2312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>188</v>
       </c>
@@ -2339,7 +2335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>189</v>
       </c>
@@ -2362,7 +2358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>192</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>195</v>
       </c>
@@ -2408,7 +2404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>198</v>
       </c>
@@ -2431,7 +2427,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>201</v>
       </c>
@@ -2454,7 +2450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>202</v>
       </c>
@@ -2477,7 +2473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>203</v>
       </c>
@@ -2500,7 +2496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>204</v>
       </c>
@@ -2523,7 +2519,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>205</v>
       </c>
@@ -2546,7 +2542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>206</v>
       </c>
@@ -2569,7 +2565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>207</v>
       </c>
@@ -2592,7 +2588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>208</v>
       </c>
@@ -2615,7 +2611,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>209</v>
       </c>
@@ -2638,7 +2634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>210</v>
       </c>
@@ -2661,7 +2657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>211</v>
       </c>
@@ -2684,7 +2680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>212</v>
       </c>
@@ -2707,7 +2703,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>213</v>
       </c>
@@ -2730,7 +2726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>231</v>
       </c>
@@ -2753,7 +2749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>243</v>
       </c>
@@ -2776,7 +2772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>246</v>
       </c>
@@ -2799,7 +2795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>249</v>
       </c>
@@ -2822,7 +2818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>252</v>
       </c>
@@ -2845,7 +2841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>255</v>
       </c>
@@ -2868,7 +2864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>258</v>
       </c>
@@ -2891,7 +2887,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>264</v>
       </c>
@@ -2914,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>273</v>
       </c>
@@ -2937,7 +2933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>279</v>
       </c>
@@ -2960,7 +2956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>282</v>
       </c>
@@ -2983,7 +2979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>285</v>
       </c>
@@ -3006,7 +3002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>291</v>
       </c>
@@ -3029,7 +3025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>300</v>
       </c>
@@ -3052,7 +3048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>306</v>
       </c>
@@ -3075,7 +3071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>309</v>
       </c>
@@ -3098,7 +3094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>312</v>
       </c>
@@ -3121,7 +3117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>315</v>
       </c>
@@ -3144,7 +3140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>318</v>
       </c>
@@ -3167,7 +3163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>321</v>
       </c>
@@ -3190,7 +3186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>323</v>
       </c>
@@ -3213,7 +3209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>324</v>
       </c>
@@ -3236,7 +3232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>327</v>
       </c>
@@ -3259,7 +3255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>330</v>
       </c>
@@ -3282,7 +3278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>333</v>
       </c>
@@ -3305,7 +3301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>335</v>
       </c>
@@ -3328,7 +3324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>336</v>
       </c>
@@ -3351,7 +3347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>339</v>
       </c>
@@ -3374,7 +3370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>342</v>
       </c>
@@ -3397,7 +3393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>345</v>
       </c>
@@ -3420,7 +3416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>348</v>
       </c>
@@ -3443,7 +3439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>351</v>
       </c>
@@ -3466,7 +3462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>354</v>
       </c>
@@ -3489,7 +3485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>360</v>
       </c>
@@ -3512,7 +3508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>368</v>
       </c>
@@ -3535,7 +3531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>369</v>
       </c>
@@ -3558,7 +3554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>371</v>
       </c>
@@ -3581,7 +3577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>372</v>
       </c>
@@ -3604,7 +3600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>374</v>
       </c>
@@ -3627,7 +3623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>375</v>
       </c>
@@ -3650,7 +3646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>377</v>
       </c>
@@ -3673,7 +3669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>378</v>
       </c>
@@ -3696,7 +3692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>380</v>
       </c>
@@ -3719,7 +3715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>381</v>
       </c>
@@ -3742,7 +3738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>383</v>
       </c>
@@ -3765,7 +3761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>384</v>
       </c>
@@ -3788,7 +3784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>386</v>
       </c>
@@ -3811,7 +3807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>387</v>
       </c>
@@ -3834,7 +3830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>389</v>
       </c>
@@ -3857,7 +3853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>390</v>
       </c>
@@ -3880,7 +3876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>393</v>
       </c>
@@ -3903,7 +3899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>399</v>
       </c>
@@ -3926,7 +3922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>405</v>
       </c>
@@ -3949,7 +3945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>408</v>
       </c>
@@ -3972,7 +3968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>410</v>
       </c>
@@ -3995,7 +3991,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>411</v>
       </c>
@@ -4018,7 +4014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>416</v>
       </c>
@@ -4041,7 +4037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>417</v>
       </c>
@@ -4064,7 +4060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>418</v>
       </c>
@@ -4087,7 +4083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>419</v>
       </c>
@@ -4110,7 +4106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>420</v>
       </c>
@@ -4133,7 +4129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>432</v>
       </c>
@@ -4156,7 +4152,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>438</v>
       </c>
@@ -4179,7 +4175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>441</v>
       </c>
@@ -4202,7 +4198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>443</v>
       </c>
@@ -4225,7 +4221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>444</v>
       </c>
@@ -4248,7 +4244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>449</v>
       </c>
@@ -4271,7 +4267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>450</v>
       </c>
@@ -4294,7 +4290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>451</v>
       </c>
@@ -4317,7 +4313,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>452</v>
       </c>
@@ -4340,7 +4336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>453</v>
       </c>
@@ -4363,7 +4359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>456</v>
       </c>
@@ -4386,7 +4382,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>459</v>
       </c>
@@ -4409,7 +4405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>462</v>
       </c>
@@ -4432,7 +4428,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>465</v>
       </c>
@@ -4455,7 +4451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>466</v>
       </c>
@@ -4478,7 +4474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>467</v>
       </c>
@@ -4501,7 +4497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>468</v>
       </c>
@@ -4524,7 +4520,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>469</v>
       </c>
@@ -4547,7 +4543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>470</v>
       </c>
@@ -4570,7 +4566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>471</v>
       </c>
@@ -4593,7 +4589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>472</v>
       </c>
@@ -4616,7 +4612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>473</v>
       </c>
@@ -4639,7 +4635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>474</v>
       </c>
@@ -4662,7 +4658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>475</v>
       </c>
@@ -4685,7 +4681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>476</v>
       </c>
@@ -4708,7 +4704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>477</v>
       </c>
@@ -4731,7 +4727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>495</v>
       </c>
@@ -4754,7 +4750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>507</v>
       </c>
@@ -4777,7 +4773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>510</v>
       </c>
@@ -4800,7 +4796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>513</v>
       </c>
@@ -4823,7 +4819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>516</v>
       </c>
@@ -4846,7 +4842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>519</v>
       </c>
@@ -4869,7 +4865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
         <v>522</v>
       </c>
@@ -4892,7 +4888,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>528</v>
       </c>
@@ -4915,7 +4911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>537</v>
       </c>
@@ -4938,7 +4934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>543</v>
       </c>
@@ -4961,7 +4957,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>549</v>
       </c>
@@ -4984,7 +4980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>552</v>
       </c>
@@ -5007,7 +5003,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>555</v>
       </c>
@@ -5030,7 +5026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>558</v>
       </c>
@@ -5053,7 +5049,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>561</v>
       </c>
@@ -5076,7 +5072,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>564</v>
       </c>
@@ -5099,7 +5095,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>567</v>
       </c>
@@ -5122,7 +5118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>570</v>
       </c>
@@ -5145,7 +5141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>572</v>
       </c>
@@ -5168,7 +5164,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>573</v>
       </c>
@@ -5191,7 +5187,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>576</v>
       </c>
@@ -5214,7 +5210,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>579</v>
       </c>
@@ -5237,7 +5233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>582</v>
       </c>
@@ -5260,7 +5256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>584</v>
       </c>
@@ -5283,7 +5279,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>585</v>
       </c>
@@ -5306,7 +5302,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>588</v>
       </c>
@@ -5317,19 +5313,19 @@
         <v>84</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="F193" s="1">
+        <v>2</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F193" s="1">
-        <v>1</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>591</v>
       </c>
@@ -5349,10 +5345,10 @@
         <v>0</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>594</v>
       </c>
@@ -5363,19 +5359,19 @@
         <v>84</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F195" s="1">
+        <v>2</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F195" s="1">
-        <v>1</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>597</v>
       </c>
@@ -5395,10 +5391,10 @@
         <v>0</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>600</v>
       </c>
@@ -5409,19 +5405,19 @@
         <v>84</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F197" s="1">
+        <v>2</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F197" s="1">
-        <v>1</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>603</v>
       </c>
@@ -5441,10 +5437,10 @@
         <v>0</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>606</v>
       </c>
@@ -5467,7 +5463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>609</v>
       </c>
@@ -5490,7 +5486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>612</v>
       </c>
@@ -5498,22 +5494,22 @@
         <v>615</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E201" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F201" s="1">
+        <v>2</v>
+      </c>
+      <c r="G201" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F201" s="1">
-        <v>1</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>615</v>
       </c>
@@ -5521,7 +5517,7 @@
         <v>618</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D202" s="1">
         <v>5</v>
@@ -5533,10 +5529,10 @@
         <v>0</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>618</v>
       </c>
@@ -5544,22 +5540,22 @@
         <v>621</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E203" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F203" s="1">
+        <v>2</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F203" s="1">
-        <v>1</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>621</v>
       </c>
@@ -5567,7 +5563,7 @@
         <v>624</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D204" s="1">
         <v>5</v>
@@ -5579,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>624</v>
       </c>
@@ -5590,22 +5586,22 @@
         <v>627</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E205" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F205" s="1">
+        <v>2</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F205" s="1">
-        <v>1</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>627</v>
       </c>
@@ -5613,7 +5609,7 @@
         <v>630</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D206" s="1">
         <v>5</v>
@@ -5625,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>630</v>
       </c>
@@ -5636,7 +5632,7 @@
         <v>633</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D207" s="1">
         <v>5</v>
@@ -5651,7 +5647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>633</v>
       </c>
@@ -5659,22 +5655,22 @@
         <v>636</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D208" s="1">
+        <v>1</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D208" s="1">
-        <v>1</v>
-      </c>
-      <c r="E208" s="1" t="s">
+      <c r="F208" s="1">
+        <v>0</v>
+      </c>
+      <c r="G208" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F208" s="1">
-        <v>0</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>636</v>
       </c>
@@ -5682,7 +5678,7 @@
         <v>639</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D209" s="1">
         <v>5</v>
@@ -5697,7 +5693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>639</v>
       </c>
@@ -5705,7 +5701,7 @@
         <v>642</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -5720,7 +5716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>642</v>
       </c>
@@ -5728,7 +5724,7 @@
         <v>645</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D211" s="1">
         <v>5</v>
@@ -5743,7 +5739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>645</v>
       </c>
@@ -5751,7 +5747,7 @@
         <v>648</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -5766,7 +5762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>648</v>
       </c>
@@ -5774,22 +5770,22 @@
         <v>651</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F213" s="1">
-        <v>0</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
         <v>651</v>
       </c>
@@ -5797,22 +5793,22 @@
         <v>678</v>
       </c>
       <c r="C214" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D214" s="5">
+        <v>2</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F214" s="5">
+        <v>1</v>
+      </c>
+      <c r="G214" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D214" s="5">
-        <v>2</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F214" s="5">
-        <v>1</v>
-      </c>
-      <c r="G214" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>678</v>
       </c>
@@ -5835,7 +5831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>681</v>
       </c>
@@ -5858,7 +5854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>687</v>
       </c>
@@ -5881,7 +5877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>690</v>
       </c>
@@ -5904,7 +5900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>693</v>
       </c>
@@ -5927,7 +5923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>699</v>
       </c>
@@ -5950,7 +5946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>708</v>
       </c>
@@ -5973,7 +5969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>714</v>
       </c>
@@ -5996,7 +5992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>717</v>
       </c>
@@ -6019,7 +6015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>720</v>
       </c>
@@ -6042,7 +6038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>723</v>
       </c>
@@ -6065,7 +6061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>726</v>
       </c>
@@ -6088,7 +6084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>729</v>
       </c>
@@ -6111,7 +6107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>731</v>
       </c>
@@ -6134,7 +6130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>732</v>
       </c>
@@ -6157,7 +6153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>735</v>
       </c>
@@ -6180,7 +6176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>738</v>
       </c>
@@ -6203,7 +6199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>741</v>
       </c>
@@ -6226,7 +6222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>743</v>
       </c>
@@ -6249,7 +6245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>744</v>
       </c>
@@ -6272,7 +6268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>747</v>
       </c>
@@ -6295,7 +6291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>750</v>
       </c>
@@ -6318,7 +6314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>753</v>
       </c>
@@ -6341,7 +6337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>756</v>
       </c>
@@ -6364,7 +6360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>759</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>762</v>
       </c>
@@ -6410,7 +6406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>771</v>
       </c>
@@ -6433,7 +6429,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>777</v>
       </c>
@@ -6456,7 +6452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>780</v>
       </c>
@@ -6479,7 +6475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>782</v>
       </c>
@@ -6502,7 +6498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>783</v>
       </c>
@@ -6525,7 +6521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>788</v>
       </c>
@@ -6548,7 +6544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>789</v>
       </c>
@@ -6571,7 +6567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>790</v>
       </c>
@@ -6594,7 +6590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>791</v>
       </c>
@@ -6617,7 +6613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>792</v>
       </c>
@@ -6640,7 +6636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>810</v>
       </c>
@@ -6663,7 +6659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>816</v>
       </c>
@@ -6686,7 +6682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>819</v>
       </c>
@@ -6709,7 +6705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>821</v>
       </c>
@@ -6732,7 +6728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>822</v>
       </c>
@@ -6755,7 +6751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>827</v>
       </c>
@@ -6778,7 +6774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>828</v>
       </c>
@@ -6801,7 +6797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>829</v>
       </c>
@@ -6824,7 +6820,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>830</v>
       </c>
@@ -6847,7 +6843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>831</v>
       </c>
@@ -6870,7 +6866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>834</v>
       </c>
@@ -6893,7 +6889,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>837</v>
       </c>
@@ -6916,7 +6912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>840</v>
       </c>
@@ -6939,7 +6935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>843</v>
       </c>
@@ -6962,7 +6958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>844</v>
       </c>
@@ -6985,7 +6981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>845</v>
       </c>
@@ -7008,7 +7004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>846</v>
       </c>
@@ -7031,7 +7027,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>847</v>
       </c>
@@ -7054,7 +7050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>848</v>
       </c>
@@ -7077,7 +7073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>849</v>
       </c>
@@ -7100,7 +7096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>850</v>
       </c>
@@ -7123,7 +7119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>851</v>
       </c>
@@ -7146,7 +7142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>852</v>
       </c>
@@ -7169,7 +7165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>853</v>
       </c>
@@ -7192,7 +7188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>854</v>
       </c>
@@ -7215,7 +7211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>855</v>
       </c>
@@ -7238,7 +7234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>856</v>
       </c>
@@ -7261,7 +7257,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>857</v>
       </c>
@@ -7284,7 +7280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>858</v>
       </c>
@@ -7307,7 +7303,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>859</v>
       </c>
@@ -7330,7 +7326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>860</v>
       </c>
@@ -7353,7 +7349,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>861</v>
       </c>
@@ -7376,7 +7372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>862</v>
       </c>
@@ -7399,7 +7395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>863</v>
       </c>
@@ -7422,7 +7418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>864</v>
       </c>
@@ -7445,7 +7441,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>867</v>
       </c>
@@ -7468,7 +7464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>885</v>
       </c>
@@ -7491,7 +7487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>900</v>
       </c>
@@ -7514,7 +7510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>903</v>
       </c>
@@ -7537,7 +7533,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>906</v>
       </c>
@@ -7560,7 +7556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>909</v>
       </c>
@@ -7583,7 +7579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>912</v>
       </c>
@@ -7606,7 +7602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>915</v>
       </c>
@@ -7614,7 +7610,7 @@
         <v>921</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D293" s="1">
         <v>1</v>
@@ -7629,7 +7625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>921</v>
       </c>
@@ -7637,7 +7633,7 @@
         <v>930</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D294" s="1">
         <v>2</v>
@@ -7652,7 +7648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>930</v>
       </c>
@@ -7660,7 +7656,7 @@
         <v>936</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>3</v>
@@ -7675,7 +7671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>936</v>
       </c>
@@ -7683,22 +7679,22 @@
         <v>939</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D296" s="1">
         <v>5</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F296" s="1">
         <v>2</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>939</v>
       </c>
@@ -7706,22 +7702,22 @@
         <v>942</v>
       </c>
       <c r="C297" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D297" s="1">
+        <v>1</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F297" s="1">
+        <v>1</v>
+      </c>
+      <c r="G297" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D297" s="1">
-        <v>1</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F297" s="1">
-        <v>1</v>
-      </c>
-      <c r="G297" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>942</v>
       </c>
@@ -7729,7 +7725,7 @@
         <v>945</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D298" s="1">
         <v>7</v>
@@ -7741,10 +7737,10 @@
         <v>1</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>945</v>
       </c>
@@ -7752,22 +7748,22 @@
         <v>948</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D299" s="1">
         <v>1</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F299" s="1">
         <v>1</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>948</v>
       </c>
@@ -7775,22 +7771,22 @@
         <v>951</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F300" s="1">
         <v>1</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>951</v>
       </c>
@@ -7798,22 +7794,22 @@
         <v>954</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D301" s="1">
         <v>2</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F301" s="1">
         <v>1</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>954</v>
       </c>
@@ -7821,7 +7817,7 @@
         <v>960</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>3</v>
@@ -7836,7 +7832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>960</v>
       </c>
@@ -7844,22 +7840,22 @@
         <v>965</v>
       </c>
       <c r="C303" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D303" s="1">
+        <v>1</v>
+      </c>
+      <c r="E303" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D303" s="1">
-        <v>1</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F303" s="1">
         <v>2</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>965</v>
       </c>
@@ -7867,7 +7863,7 @@
         <v>966</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D304" s="1">
         <v>5</v>
@@ -7882,7 +7878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>966</v>
       </c>
@@ -7890,7 +7886,7 @@
         <v>972</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D305" s="1">
         <v>1</v>
@@ -7905,7 +7901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>972</v>
       </c>
@@ -7913,7 +7909,7 @@
         <v>981</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -7928,7 +7924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>981</v>
       </c>
@@ -7936,7 +7932,7 @@
         <v>987</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>3</v>
@@ -7951,7 +7947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>987</v>
       </c>
@@ -7959,22 +7955,22 @@
         <v>989</v>
       </c>
       <c r="C308" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D308" s="1">
+        <v>1</v>
+      </c>
+      <c r="E308" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D308" s="1">
-        <v>1</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F308" s="1">
         <v>2</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>989</v>
       </c>
@@ -7982,10 +7978,10 @@
         <v>990</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>4</v>
@@ -7994,10 +7990,10 @@
         <v>1</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>990</v>
       </c>
@@ -8005,22 +8001,22 @@
         <v>992</v>
       </c>
       <c r="C310" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D310" s="1">
+        <v>1</v>
+      </c>
+      <c r="E310" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D310" s="1">
-        <v>1</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F310" s="1">
         <v>2</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>992</v>
       </c>
@@ -8028,10 +8024,10 @@
         <v>993</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>4</v>
@@ -8040,10 +8036,10 @@
         <v>1</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>993</v>
       </c>
@@ -8051,22 +8047,22 @@
         <v>996</v>
       </c>
       <c r="C312" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D312" s="1">
+        <v>1</v>
+      </c>
+      <c r="E312" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D312" s="1">
-        <v>1</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F312" s="1">
         <v>2</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>996</v>
       </c>
@@ -8074,7 +8070,7 @@
         <v>999</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D313" s="1">
         <v>5</v>
@@ -8089,7 +8085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>999</v>
       </c>
@@ -8097,7 +8093,7 @@
         <v>1002</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -8112,7 +8108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>1002</v>
       </c>
@@ -8120,7 +8116,7 @@
         <v>1005</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D315" s="1">
         <v>5</v>
@@ -8135,7 +8131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>1005</v>
       </c>
@@ -8143,7 +8139,7 @@
         <v>1008</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D316" s="1">
         <v>1</v>
@@ -8158,7 +8154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>1008</v>
       </c>
@@ -8166,7 +8162,7 @@
         <v>1011</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D317" s="1">
         <v>5</v>
@@ -8181,7 +8177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>1011</v>
       </c>
@@ -8189,7 +8185,7 @@
         <v>1019</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D318" s="1">
         <v>1</v>
@@ -8204,7 +8200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>1019</v>
       </c>
@@ -8212,7 +8208,7 @@
         <v>1020</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D319" s="1">
         <v>5</v>
@@ -8227,7 +8223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>1020</v>
       </c>
@@ -8235,7 +8231,7 @@
         <v>1023</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D320" s="1">
         <v>1</v>
